--- a/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
@@ -1291,6 +1291,9 @@
       <c r="C101" t="str">
         <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F101" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1352,7 +1355,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020661087155101010101512152054081010126610105510881010151210815851020101515510101051015154101110102420510201510101010401010101010151271510151551020205510401565108210121090</v>
+        <v>020661087155101010101512152054081010126610105510881010151210815851020101515510101051015154101110102420510201510101010401010101010151271510151551020205510401565108210121093</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1295,9 +1295,172 @@
         <v>3</v>
       </c>
     </row>
+    <row r="102">
+      <c r="C102" t="str">
+        <v>275_长相思_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F102" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>4</v>
+      </c>
+      <c r="C103" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F103" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F104" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F105" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>165_杏仁酒_Amaretto_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F106" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>275_长相思_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F107" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F108" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>5</v>
+      </c>
+      <c r="C109" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F109" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F110" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F111" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F113" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F114" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F115" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F116" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="str">
+        <v>104_绣球重瓣紫_Hydrangea Purple D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F117" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F118" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F119" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F120" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1355,7 +1518,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020661087155101010101512152054081010126610105510881010151210815851020101515510101051015154101110102420510201510101010401010101010151271510151551020205510401565108210121093</v>
+        <v>020661087155101010101512152054081010126610105510881010151210815851020101515510101051015154101110102420510201510101010401010101010151271510151551020205510401565108210121093312126533105555201530101015100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
@@ -1457,6 +1457,9 @@
       <c r="C121" t="str">
         <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
       </c>
+      <c r="F121" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1518,7 +1521,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020661087155101010101512152054081010126610105510881010151210815851020101515510101051015154101110102420510201510101010401010101010151271510151551020205510401565108210121093312126533105555201530101015100</v>
+        <v>020661087155101010101512152054081010126610105510881010151210815851020101515510101051015154101110102420510201510101010401010101010151271510151551020205510401565108210121093312126533105555201530101015103</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1458,12 +1458,134 @@
         <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
       </c>
       <c r="F121" t="str">
-        <v>3</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F122" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="str">
+        <v>730_蝴蝶洋牡丹奶油黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F123" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="str">
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F124" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>7</v>
+      </c>
+      <c r="C125" t="str">
+        <v>452_粉吊鸟_pink hanging heliconia_undefined_1bunch</v>
+      </c>
+      <c r="F125" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F126" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F127" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F128" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="str">
+        <v>681_锦鲤橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F129" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F130" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>8</v>
+      </c>
+      <c r="C131" t="str">
+        <v>654_大丽花 巧克力_undefined_undefined_5stems</v>
+      </c>
+      <c r="F131" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F132" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F133" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="str">
+        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F134" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" xml:space="preserve">
+      <c r="A135" t="str">
+        <v>9</v>
+      </c>
+      <c r="C135" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
+      </c>
+      <c r="F135" t="str">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L135"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1521,7 +1643,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020661087155101010101512152054081010126610105510881010151210815851020101515510101051015154101110102420510201510101010401010101010151271510151551020205510401565108210121093312126533105555201530101015103</v>
+        <v>0206610871551010101015121520540810101266101055108810101512108158510201015155101010510151541011101024205102015101010104010101010101512715101515510202055104015651082101210933121265331055552015301010151030101055151055551015820</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
@@ -1645,6 +1645,9 @@
       <c r="G2" t="str">
         <v>0206610871551010101015121520540810101266101055108810101512108158510201015155101010510151541011101024205102015101010104010101010101512715101515510202055104015651082101210933121265331055552015301010151030101055151055551015820</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-23.xlsx
@@ -557,6 +557,9 @@
       <c r="G2" t="str">
         <v>0151515101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
